--- a/latex/data/Rank2Scalabilityv2.xlsx
+++ b/latex/data/Rank2Scalabilityv2.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnu/Documents/research/lawton/planc/latex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4D4C4E-F9D7-8641-BE9F-25B1636B691A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E4912C-DB97-924B-9B5E-B60A2A1DDCC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27440" windowHeight="17040" activeTab="1" xr2:uid="{8722A55B-31FB-6E49-B1FD-EE37D33A2388}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27440" windowHeight="17040" activeTab="3" xr2:uid="{8722A55B-31FB-6E49-B1FD-EE37D33A2388}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
+    <sheet name="speedup" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>Reuters</t>
   </si>
@@ -68,6 +69,15 @@
   </si>
   <si>
     <t>AVIRIS</t>
+  </si>
+  <si>
+    <t>BIGDEN Speedup</t>
+  </si>
+  <si>
+    <t>PUBMED</t>
+  </si>
+  <si>
+    <t>PUBMED Speedup</t>
   </si>
 </sst>
 </file>
@@ -2776,6 +2786,802 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>speedup!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIGDEN Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>speedup!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>speedup!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3638097775807689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5760628258621558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2655774596139926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4307595290857495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.55353100124151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.185006667407489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.758269522291755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.493171392827353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.271931704223057</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.77705986459533</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.826907057003449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.748775083481572</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.758032348078622</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.516270118766027</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.124264051202925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.144186892864138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.232124349904495</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.712839777947931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.689628838397955</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.573991036958574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8C3-E548-AD9D-CEDBDD1FD976}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1953873296"/>
+        <c:axId val="1953729744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1953873296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953729744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1953729744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953873296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>speedup!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PUBMED Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>speedup!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>speedup!$H$2:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1177896542436314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1406376576785096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.20535891721011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2071304129503584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1601662046600867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1856465344837437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2453368964025004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2210607820363919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6548888434977371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2098642699182367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.193818784478669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.910705960540803</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4129416439536824</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4602553630540385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3962942891105712</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2390513126812417</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2649978093543268</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0676241876358672</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5390333844898034</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6984399478419121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2239-2D49-A411-060AD58C4C4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1234391103"/>
+        <c:axId val="1234392735"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1234391103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234392735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1234392735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234391103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3016,6 +3822,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5597,6 +6483,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6333,6 +8251,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A117EB9-B5AF-B34F-BE0C-A789435E711F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F652C01E-79B5-3041-823B-7D3F7D0DF9E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7311,8 +9306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4870C07-6D77-A947-89DD-398CB5D476A7}">
   <dimension ref="A2:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8373,4 +10368,811 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF3C10D-B012-E641-B482-ADF73BE66043}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EA2AA6-1F46-994A-8279-79EB37F52A30}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.90083</v>
+      </c>
+      <c r="C2">
+        <v>49.1111</v>
+      </c>
+      <c r="D2">
+        <v>189.84299999999999</v>
+      </c>
+      <c r="E2">
+        <f>$D$2/D2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>394.25</v>
+      </c>
+      <c r="H2">
+        <f>G$2/G2</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>4.2987599999999997</v>
+      </c>
+      <c r="O2">
+        <v>20.2318</v>
+      </c>
+      <c r="P2">
+        <v>28.727499999999999</v>
+      </c>
+      <c r="Q2">
+        <v>137.58600000000001</v>
+      </c>
+      <c r="R2">
+        <v>202.21799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.30471</v>
+      </c>
+      <c r="C3">
+        <v>39.605800000000002</v>
+      </c>
+      <c r="D3">
+        <v>80.312299999999993</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E22" si="0">$D$2/D3</f>
+        <v>2.3638097775807689</v>
+      </c>
+      <c r="G3">
+        <v>352.70499999999998</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H22" si="1">G$2/G3</f>
+        <v>1.1177896542436314</v>
+      </c>
+      <c r="N3">
+        <v>4.6227799999999997</v>
+      </c>
+      <c r="O3">
+        <v>11.345599999999999</v>
+      </c>
+      <c r="P3">
+        <v>14.8725</v>
+      </c>
+      <c r="Q3">
+        <v>73.561999999999998</v>
+      </c>
+      <c r="R3">
+        <v>126.80500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1.6610100000000001</v>
+      </c>
+      <c r="C4">
+        <v>43.475700000000003</v>
+      </c>
+      <c r="D4">
+        <v>41.4861</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.5760628258621558</v>
+      </c>
+      <c r="G4">
+        <v>345.64</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1.1406376576785096</v>
+      </c>
+      <c r="N4">
+        <v>4.58324</v>
+      </c>
+      <c r="O4">
+        <v>7.2419900000000004</v>
+      </c>
+      <c r="P4">
+        <v>8.2694799999999997</v>
+      </c>
+      <c r="Q4">
+        <v>40.511800000000001</v>
+      </c>
+      <c r="R4">
+        <v>75.935199999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1.9445399999999999</v>
+      </c>
+      <c r="C5">
+        <v>39.1265</v>
+      </c>
+      <c r="D5">
+        <v>26.129100000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7.2655774596139926</v>
+      </c>
+      <c r="G5">
+        <v>327.08100000000002</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1.20535891721011</v>
+      </c>
+      <c r="N5">
+        <v>3.9264000000000001</v>
+      </c>
+      <c r="O5">
+        <v>6.1038500000000004</v>
+      </c>
+      <c r="P5">
+        <v>5.6501400000000004</v>
+      </c>
+      <c r="Q5">
+        <v>28.401599999999998</v>
+      </c>
+      <c r="R5">
+        <v>62.795000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.6616500000000001</v>
+      </c>
+      <c r="C6">
+        <v>44.393799999999999</v>
+      </c>
+      <c r="D6">
+        <v>22.517900000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8.4307595290857495</v>
+      </c>
+      <c r="G6">
+        <v>326.601</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1.2071304129503584</v>
+      </c>
+      <c r="O6">
+        <v>4.9314999999999998</v>
+      </c>
+      <c r="P6">
+        <v>4.2095500000000001</v>
+      </c>
+      <c r="Q6">
+        <v>22.571000000000002</v>
+      </c>
+      <c r="R6">
+        <v>56.831200000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1.7801100000000001</v>
+      </c>
+      <c r="D7">
+        <v>16.4316</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>11.55353100124151</v>
+      </c>
+      <c r="G7">
+        <v>339.822</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1.1601662046600867</v>
+      </c>
+      <c r="O7">
+        <v>4.2575900000000004</v>
+      </c>
+      <c r="P7">
+        <v>3.81392</v>
+      </c>
+      <c r="Q7">
+        <v>18.967400000000001</v>
+      </c>
+      <c r="R7">
+        <v>51.9114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1.5382199999999999</v>
+      </c>
+      <c r="D8">
+        <v>14.398400000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>13.185006667407489</v>
+      </c>
+      <c r="G8">
+        <v>332.51900000000001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.1856465344837437</v>
+      </c>
+      <c r="O8">
+        <v>4.6992700000000003</v>
+      </c>
+      <c r="P8">
+        <v>3.3125499999999999</v>
+      </c>
+      <c r="Q8">
+        <v>16.639099999999999</v>
+      </c>
+      <c r="R8">
+        <v>50.088999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1.7361599999999999</v>
+      </c>
+      <c r="D9">
+        <v>12.8635</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>14.758269522291755</v>
+      </c>
+      <c r="G9">
+        <v>316.58100000000002</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.2453368964025004</v>
+      </c>
+      <c r="O9">
+        <v>3.9377499999999999</v>
+      </c>
+      <c r="P9">
+        <v>2.76769</v>
+      </c>
+      <c r="Q9">
+        <v>15.277200000000001</v>
+      </c>
+      <c r="R9">
+        <v>47.925699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.86602</v>
+      </c>
+      <c r="D10">
+        <v>11.510400000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>16.493171392827353</v>
+      </c>
+      <c r="G10">
+        <v>322.875</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.2210607820363919</v>
+      </c>
+      <c r="O10">
+        <v>3.8122699999999998</v>
+      </c>
+      <c r="P10">
+        <v>2.0747399999999998</v>
+      </c>
+      <c r="Q10">
+        <v>13.4625</v>
+      </c>
+      <c r="R10">
+        <v>46.5276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1.9210700000000001</v>
+      </c>
+      <c r="D11">
+        <v>11.6669</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>16.271931704223057</v>
+      </c>
+      <c r="G11">
+        <v>84.695899999999995</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>4.6548888434977371</v>
+      </c>
+      <c r="O11">
+        <v>3.6942599999999999</v>
+      </c>
+      <c r="P11">
+        <v>2.0914000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>12.4518</v>
+      </c>
+      <c r="R11">
+        <v>45.340299999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1.9940800000000001</v>
+      </c>
+      <c r="D12">
+        <v>10.6791</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>17.77705986459533</v>
+      </c>
+      <c r="G12">
+        <v>93.649100000000004</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4.2098642699182367</v>
+      </c>
+      <c r="O12">
+        <v>3.5505499999999999</v>
+      </c>
+      <c r="P12">
+        <v>2.0382799999999999</v>
+      </c>
+      <c r="Q12">
+        <v>11.2484</v>
+      </c>
+      <c r="R12">
+        <v>44.303100000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>2.76362</v>
+      </c>
+      <c r="D13">
+        <v>10.083600000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>18.826907057003449</v>
+      </c>
+      <c r="G13">
+        <v>94.007400000000004</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>4.193818784478669</v>
+      </c>
+      <c r="O13">
+        <v>3.3760300000000001</v>
+      </c>
+      <c r="P13">
+        <v>1.78129</v>
+      </c>
+      <c r="Q13">
+        <v>11.0314</v>
+      </c>
+      <c r="R13">
+        <v>43.908499999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1.78196</v>
+      </c>
+      <c r="D14">
+        <v>9.6128999999999998</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>19.748775083481572</v>
+      </c>
+      <c r="G14">
+        <v>100.813</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3.910705960540803</v>
+      </c>
+      <c r="O14">
+        <v>3.4249900000000002</v>
+      </c>
+      <c r="P14">
+        <v>1.5386200000000001</v>
+      </c>
+      <c r="Q14">
+        <v>10.1912</v>
+      </c>
+      <c r="R14">
+        <v>42.646700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>2.1629100000000001</v>
+      </c>
+      <c r="D15">
+        <v>9.1455199999999994</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>20.758032348078622</v>
+      </c>
+      <c r="G15">
+        <v>89.339500000000001</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>4.4129416439536824</v>
+      </c>
+      <c r="O15">
+        <v>3.1164800000000001</v>
+      </c>
+      <c r="P15">
+        <v>1.2710900000000001</v>
+      </c>
+      <c r="Q15">
+        <v>9.5676400000000008</v>
+      </c>
+      <c r="R15">
+        <v>42.4193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>2.4150100000000001</v>
+      </c>
+      <c r="D16">
+        <v>8.8232300000000006</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>21.516270118766027</v>
+      </c>
+      <c r="G16">
+        <v>88.391800000000003</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>4.4602553630540385</v>
+      </c>
+      <c r="O16">
+        <v>2.2753100000000002</v>
+      </c>
+      <c r="P16">
+        <v>1.29731</v>
+      </c>
+      <c r="Q16">
+        <v>9.0768599999999999</v>
+      </c>
+      <c r="R16">
+        <v>42.595799999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>2.42137</v>
+      </c>
+      <c r="D17">
+        <v>8.5807599999999997</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>22.124264051202925</v>
+      </c>
+      <c r="G17">
+        <v>89.677800000000005</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>4.3962942891105712</v>
+      </c>
+      <c r="O17">
+        <v>2.4762</v>
+      </c>
+      <c r="P17">
+        <v>1.38388</v>
+      </c>
+      <c r="Q17">
+        <v>8.56358</v>
+      </c>
+      <c r="R17">
+        <v>42.532499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>2.50569</v>
+      </c>
+      <c r="D18">
+        <v>8.5730400000000007</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>22.144186892864138</v>
+      </c>
+      <c r="G18">
+        <v>93.004300000000001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>4.2390513126812417</v>
+      </c>
+      <c r="O18">
+        <v>2.6131899999999999</v>
+      </c>
+      <c r="P18">
+        <v>1.3153999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>8.3663000000000007</v>
+      </c>
+      <c r="R18">
+        <v>40.867100000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2.73041</v>
+      </c>
+      <c r="D19">
+        <v>8.5391300000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>22.232124349904495</v>
+      </c>
+      <c r="G19">
+        <v>92.438500000000005</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>4.2649978093543268</v>
+      </c>
+      <c r="O19">
+        <v>2.4928400000000002</v>
+      </c>
+      <c r="P19">
+        <v>1.0430699999999999</v>
+      </c>
+      <c r="Q19">
+        <v>8.3631600000000006</v>
+      </c>
+      <c r="R19">
+        <v>39.976300000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>2.2841800000000001</v>
+      </c>
+      <c r="D20">
+        <v>8.3583999999999996</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>22.712839777947931</v>
+      </c>
+      <c r="G20">
+        <v>96.923900000000003</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>4.0676241876358672</v>
+      </c>
+      <c r="O20">
+        <v>2.8723399999999999</v>
+      </c>
+      <c r="P20">
+        <v>0.93156899999999998</v>
+      </c>
+      <c r="Q20">
+        <v>7.7371600000000003</v>
+      </c>
+      <c r="R20">
+        <v>39.702199999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>2.1444200000000002</v>
+      </c>
+      <c r="D21">
+        <v>8.0137599999999996</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>23.689628838397955</v>
+      </c>
+      <c r="G21">
+        <v>86.857699999999994</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>4.5390333844898034</v>
+      </c>
+      <c r="O21">
+        <v>2.9455100000000001</v>
+      </c>
+      <c r="P21">
+        <v>0.99229000000000001</v>
+      </c>
+      <c r="Q21">
+        <v>7.5711700000000004</v>
+      </c>
+      <c r="R21">
+        <v>39.661700000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>2.8391000000000002</v>
+      </c>
+      <c r="D22">
+        <v>8.05307</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>23.573991036958574</v>
+      </c>
+      <c r="G22">
+        <v>106.599</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>3.6984399478419121</v>
+      </c>
+      <c r="O22">
+        <v>2.84904</v>
+      </c>
+      <c r="P22">
+        <v>0.86647399999999997</v>
+      </c>
+      <c r="Q22">
+        <v>7.2173100000000003</v>
+      </c>
+      <c r="R22">
+        <v>39.598300000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/latex/data/Rank2Scalabilityv2.xlsx
+++ b/latex/data/Rank2Scalabilityv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnu/Documents/research/lawton/planc/latex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E4912C-DB97-924B-9B5E-B60A2A1DDCC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC04EC5-76BE-684F-B089-A7D36766AD72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="27440" windowHeight="17040" activeTab="3" xr2:uid="{8722A55B-31FB-6E49-B1FD-EE37D33A2388}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>Reuters</t>
   </si>
@@ -77,7 +77,13 @@
     <t>PUBMED</t>
   </si>
   <si>
-    <t>PUBMED Speedup</t>
+    <t>PUBMED level 6</t>
+  </si>
+  <si>
+    <t>PUBMED level 6 Speedup</t>
+  </si>
+  <si>
+    <t>PUBMED level 1 Speedup</t>
   </si>
 </sst>
 </file>
@@ -3198,36 +3204,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3243,7 +3219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PUBMED Speedup</c:v>
+                  <c:v>PUBMED level 1 Speedup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3408,6 +3384,111 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2239-2D49-A411-060AD58C4C4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>speedup!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PUBMED level 6 Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>speedup!$J$2:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0610687112586261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1024332549143203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1305163984501378</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1491733932239589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1311628423353186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1126696876842559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1375297538534377</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1196926426726559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9228882359703472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.564436034981286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4906301472195396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5801222842676923</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6072245392946765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5408174317744758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3851484281959108</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5445446751806342</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2363527130548735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.547777637916159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4451144788510262</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2187776616491868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2239-2D49-A411-060AD58C4C4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3538,6 +3619,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -10386,8 +10498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EA2AA6-1F46-994A-8279-79EB37F52A30}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10412,7 +10524,13 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
@@ -10454,6 +10572,13 @@
         <f>G$2/G2</f>
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>451.564719999999</v>
+      </c>
+      <c r="J2">
+        <f>I$2/I2</f>
+        <v>1</v>
+      </c>
       <c r="N2">
         <v>4.2987599999999997</v>
       </c>
@@ -10494,6 +10619,13 @@
         <f t="shared" ref="H3:H22" si="1">G$2/G3</f>
         <v>1.1177896542436314</v>
       </c>
+      <c r="I3">
+        <v>425.57537999999897</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J22" si="2">I$2/I3</f>
+        <v>1.0610687112586261</v>
+      </c>
       <c r="N3">
         <v>4.6227799999999997</v>
       </c>
@@ -10534,6 +10666,13 @@
         <f t="shared" si="1"/>
         <v>1.1406376576785096</v>
       </c>
+      <c r="I4">
+        <v>409.60730999999998</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>1.1024332549143203</v>
+      </c>
       <c r="N4">
         <v>4.58324</v>
       </c>
@@ -10574,6 +10713,13 @@
         <f t="shared" si="1"/>
         <v>1.20535891721011</v>
       </c>
+      <c r="I5">
+        <v>399.43225999999999</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>1.1305163984501378</v>
+      </c>
       <c r="N5">
         <v>3.9264000000000001</v>
       </c>
@@ -10614,6 +10760,13 @@
         <f t="shared" si="1"/>
         <v>1.2071304129503584</v>
       </c>
+      <c r="I6">
+        <v>392.947419999999</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>1.1491733932239589</v>
+      </c>
       <c r="O6">
         <v>4.9314999999999998</v>
       </c>
@@ -10648,6 +10801,13 @@
         <f t="shared" si="1"/>
         <v>1.1601662046600867</v>
       </c>
+      <c r="I7">
+        <v>399.20398999999901</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1.1311628423353186</v>
+      </c>
       <c r="O7">
         <v>4.2575900000000004</v>
       </c>
@@ -10682,6 +10842,13 @@
         <f t="shared" si="1"/>
         <v>1.1856465344837437</v>
       </c>
+      <c r="I8">
+        <v>405.83896999999899</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1.1126696876842559</v>
+      </c>
       <c r="O8">
         <v>4.6992700000000003</v>
       </c>
@@ -10716,6 +10883,13 @@
         <f t="shared" si="1"/>
         <v>1.2453368964025004</v>
       </c>
+      <c r="I9">
+        <v>396.96958999999902</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>1.1375297538534377</v>
+      </c>
       <c r="O9">
         <v>3.9377499999999999</v>
       </c>
@@ -10750,6 +10924,13 @@
         <f t="shared" si="1"/>
         <v>1.2210607820363919</v>
       </c>
+      <c r="I10">
+        <v>403.29345999999998</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>1.1196926426726559</v>
+      </c>
       <c r="O10">
         <v>3.8122699999999998</v>
       </c>
@@ -10784,6 +10965,13 @@
         <f t="shared" si="1"/>
         <v>4.6548888434977371</v>
       </c>
+      <c r="I11">
+        <v>154.492639999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>2.9228882359703472</v>
+      </c>
       <c r="O11">
         <v>3.6942599999999999</v>
       </c>
@@ -10818,6 +11006,13 @@
         <f t="shared" si="1"/>
         <v>4.2098642699182367</v>
       </c>
+      <c r="I12">
+        <v>176.08733999999899</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>2.564436034981286</v>
+      </c>
       <c r="O12">
         <v>3.5505499999999999</v>
       </c>
@@ -10852,6 +11047,13 @@
         <f t="shared" si="1"/>
         <v>4.193818784478669</v>
       </c>
+      <c r="I13">
+        <v>181.30540999999999</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>2.4906301472195396</v>
+      </c>
       <c r="O13">
         <v>3.3760300000000001</v>
       </c>
@@ -10886,6 +11088,13 @@
         <f t="shared" si="1"/>
         <v>3.910705960540803</v>
       </c>
+      <c r="I14">
+        <v>175.01678999999999</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>2.5801222842676923</v>
+      </c>
       <c r="O14">
         <v>3.4249900000000002</v>
       </c>
@@ -10920,6 +11129,13 @@
         <f t="shared" si="1"/>
         <v>4.4129416439536824</v>
       </c>
+      <c r="I15">
+        <v>173.19748000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>2.6072245392946765</v>
+      </c>
       <c r="O15">
         <v>3.1164800000000001</v>
       </c>
@@ -10954,6 +11170,13 @@
         <f t="shared" si="1"/>
         <v>4.4602553630540385</v>
       </c>
+      <c r="I16">
+        <v>177.72418999999999</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>2.5408174317744758</v>
+      </c>
       <c r="O16">
         <v>2.2753100000000002</v>
       </c>
@@ -10988,6 +11211,13 @@
         <f t="shared" si="1"/>
         <v>4.3962942891105712</v>
       </c>
+      <c r="I17">
+        <v>189.32352999999901</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>2.3851484281959108</v>
+      </c>
       <c r="O17">
         <v>2.4762</v>
       </c>
@@ -11022,6 +11252,13 @@
         <f t="shared" si="1"/>
         <v>4.2390513126812417</v>
       </c>
+      <c r="I18">
+        <v>177.46385999999899</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>2.5445446751806342</v>
+      </c>
       <c r="O18">
         <v>2.6131899999999999</v>
       </c>
@@ -11056,6 +11293,13 @@
         <f t="shared" si="1"/>
         <v>4.2649978093543268</v>
       </c>
+      <c r="I19">
+        <v>201.92016999999899</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>2.2363527130548735</v>
+      </c>
       <c r="O19">
         <v>2.4928400000000002</v>
       </c>
@@ -11090,6 +11334,13 @@
         <f t="shared" si="1"/>
         <v>4.0676241876358672</v>
       </c>
+      <c r="I20">
+        <v>177.23866999999899</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>2.547777637916159</v>
+      </c>
       <c r="O20">
         <v>2.8723399999999999</v>
       </c>
@@ -11124,6 +11375,13 @@
         <f t="shared" si="1"/>
         <v>4.5390333844898034</v>
       </c>
+      <c r="I21">
+        <v>184.68039999999999</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>2.4451144788510262</v>
+      </c>
       <c r="O21">
         <v>2.9455100000000001</v>
       </c>
@@ -11157,6 +11415,13 @@
       <c r="H22">
         <f t="shared" si="1"/>
         <v>3.6984399478419121</v>
+      </c>
+      <c r="I22">
+        <v>203.519589999999</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>2.2187776616491868</v>
       </c>
       <c r="O22">
         <v>2.84904</v>
